--- a/course outline.xlsx
+++ b/course outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amiros/GitHub/Machine_Learning_Pratt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA982A1-9FBB-F744-888F-22AA79EF1429}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88871E02-8F52-BC4C-9AD9-8A80BA76B051}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="560" windowWidth="26660" windowHeight="17440" xr2:uid="{DF2F3A67-7A70-A940-912B-6F9EEC951716}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="assignment" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
   <si>
     <t>introdutcion</t>
   </si>
@@ -148,9 +147,6 @@
     <t>model evaluation, tuning, dimensionlaity reduction, feature processing</t>
   </si>
   <si>
-    <t>unsupervised learning - clustering, mixture models</t>
-  </si>
-  <si>
     <t>project planning</t>
   </si>
   <si>
@@ -181,9 +177,6 @@
     <t>Gilad Lotan</t>
   </si>
   <si>
-    <t>Andreas Mueller</t>
-  </si>
-  <si>
     <t>Andy Gelman</t>
   </si>
   <si>
@@ -199,9 +192,6 @@
     <t>Mark Hanson</t>
   </si>
   <si>
-    <t>Gary</t>
-  </si>
-  <si>
     <t>1:30 lecture</t>
   </si>
   <si>
@@ -259,15 +249,9 @@
     <t>Week 15</t>
   </si>
   <si>
-    <t>·       Nick Seaver, “Knowing Algorithms” https://digitalsts.net/essays/knowing-algorithms/</t>
-  </si>
-  <si>
     <t>Interpretable Machine Learning</t>
   </si>
   <si>
-    <t xml:space="preserve">Douglas Hofstadter, “The Shallowness of Google Translate” </t>
-  </si>
-  <si>
     <t>software, abstraction, DevOps, MLOps, reproduclibitly, open source be a good engineer!</t>
   </si>
   <si>
@@ -289,12 +273,6 @@
     <t>Carrie Jacquith</t>
   </si>
   <si>
-    <t>https://towardsdatascience.com/understanding-differential-privacy-85ce191e198a</t>
-  </si>
-  <si>
-    <t>reading repo</t>
-  </si>
-  <si>
     <t>Data collection - modeling</t>
   </si>
   <si>
@@ -319,24 +297,6 @@
     <t>https://towardsdatascience.com/docker-made-easy-for-data-scientists-b32efbc23165</t>
   </si>
   <si>
-    <t>·      Abeba Birhane, “The Algorithmic Colonization of Africa” https://reallifemag.com/the-algorithmic-colonization-of-africa/</t>
-  </si>
-  <si>
-    <t>·      Katharine Schwab, “The Dead-Serious Strategy Behind Google’s Silly AI Experiments” https://www.fastcompany.com/90152774/the-dead-serious-strategy-behind-googles-silly-ai-experiments</t>
-  </si>
-  <si>
-    <t>·      Kyle Wiggers, “AI classifies people’s emotions from the way they walk” https://venturebeat.com/2019/07/01/ai-classifies-peoples-emotions-from-the-way-they-walk/</t>
-  </si>
-  <si>
-    <t>·      Wiggers, “AI predicts whether you’ll return an item before you buy it” https://venturebeat.com/2019/07/01/ai-predicts-whether-youll-return-an-item-before-you-buy-it/</t>
-  </si>
-  <si>
-    <t>·      Mark Bergen, “Google Wants to Train Other Companies to Use Its AI Tools” http://web.archive.org/web/20171101212341/https://www.bloomberg.com/news/articles/2017-10-19/google-wants-to-train-other-companies-to-use-its-ai-tools</t>
-  </si>
-  <si>
-    <t>·      M.C. Elish and Tim Hwang, An AI Pattern Language, https://datasociety.net/pubs/ia/AI_Pattern_Language.pdf</t>
-  </si>
-  <si>
     <t>To Do</t>
   </si>
   <si>
@@ -355,48 +315,6 @@
     <t>guests</t>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O'neil, C. (2016). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Weapons of math destruction: How big data increases inequality and threatens democracy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Broadway Books. Ch 4 (68-83)– via LMS</t>
-    </r>
-  </si>
-  <si>
     <t>Assignment</t>
   </si>
   <si>
@@ -406,9 +324,6 @@
     <t>Alex Rosenblat</t>
   </si>
   <si>
-    <t>Alexnadra Mateescu</t>
-  </si>
-  <si>
     <t>bias exercise from ethical algos, working with data in python (from tidyverse paper), viz (matplotlib, seaborn)</t>
   </si>
   <si>
@@ -460,14 +375,26 @@
     <t>sometthing here for model evaluation</t>
   </si>
   <si>
-    <t>XAI project</t>
+    <t>Elizabeth Watkins</t>
+  </si>
+  <si>
+    <t>model evaluation, tuning,, feature processing</t>
+  </si>
+  <si>
+    <t>unsupervised learning - clustering, mixture models, dimensionlaity reduction</t>
+  </si>
+  <si>
+    <t>end to end ML pipeline</t>
+  </si>
+  <si>
+    <t>add podcast for week 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -525,12 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFF2F2F2"/>
@@ -558,19 +479,6 @@
       <charset val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -582,7 +490,7 @@
       <name val="Var(--artdeco-typography-sans)"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +527,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -649,24 +563,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,49 +615,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E9E29A-0DBC-4549-BC13-D8D4D5A0C5BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1016000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 1" descr="Students can manually mark this item complete: A visual introduction to machine learning">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D11329-FE7F-3B4C-B86C-568D270AB511}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1038,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1194,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1205,10 +1076,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1219,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1230,7 +1101,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1241,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1329,12 +1200,12 @@
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="H18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1344,16 +1215,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1361,15 +1232,15 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
       <c r="D22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="24">
+        <v>105</v>
+      </c>
+      <c r="G22" s="23">
         <v>44068</v>
       </c>
     </row>
@@ -1378,18 +1249,18 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="24">
+        <v>76</v>
+      </c>
+      <c r="G23" s="23">
         <v>44075</v>
       </c>
     </row>
@@ -1401,12 +1272,12 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="24">
+        <v>104</v>
+      </c>
+      <c r="G24" s="23">
         <v>44082</v>
       </c>
     </row>
@@ -1418,9 +1289,9 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="24">
+        <v>98</v>
+      </c>
+      <c r="G25" s="23">
         <v>44089</v>
       </c>
     </row>
@@ -1429,12 +1300,12 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="24">
+        <v>99</v>
+      </c>
+      <c r="G26" s="23">
         <v>44096</v>
       </c>
     </row>
@@ -1443,12 +1314,12 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="24">
+        <v>78</v>
+      </c>
+      <c r="G27" s="23">
         <v>44103</v>
       </c>
     </row>
@@ -1459,7 +1330,7 @@
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <v>44110</v>
       </c>
     </row>
@@ -1468,12 +1339,12 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="24">
+        <v>100</v>
+      </c>
+      <c r="G29" s="23">
         <v>44117</v>
       </c>
     </row>
@@ -1482,12 +1353,12 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="24">
+        <v>102</v>
+      </c>
+      <c r="G30" s="23">
         <v>44124</v>
       </c>
     </row>
@@ -1496,12 +1367,12 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="24">
+        <v>101</v>
+      </c>
+      <c r="G31" s="23">
         <v>44131</v>
       </c>
     </row>
@@ -1510,16 +1381,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24">
+        <v>48</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23">
         <v>44138</v>
       </c>
     </row>
@@ -1528,15 +1399,15 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="24">
+        <v>94</v>
+      </c>
+      <c r="G33" s="23">
         <v>44145</v>
       </c>
     </row>
@@ -1548,12 +1419,12 @@
         <v>15</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="24">
+        <v>95</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="23">
         <v>44152</v>
       </c>
     </row>
@@ -1562,13 +1433,11 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24">
+        <v>72</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23">
         <v>44159</v>
       </c>
     </row>
@@ -1577,12 +1446,12 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="24">
+        <v>77</v>
+      </c>
+      <c r="G36" s="23">
         <v>44166</v>
       </c>
     </row>
@@ -1591,9 +1460,9 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="24">
+        <v>40</v>
+      </c>
+      <c r="G37" s="23">
         <v>44173</v>
       </c>
     </row>
@@ -1607,42 +1476,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4662BEEF-CF90-0149-8E15-860522F9F4B5}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1655,14 +1519,14 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>36</v>
@@ -1676,7 +1540,7 @@
     </row>
     <row r="2" spans="1:9" ht="22">
       <c r="A2" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1690,194 +1554,155 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
+      <c r="A7" s="16"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="A10" s="10"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10" t="s">
-        <v>96</v>
+      <c r="A12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="A13" s="10"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="A14" s="10"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="A16" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://digitalsts.net/essays/knowing-algorithms/" xr:uid="{9DC55A37-A332-6B45-9978-263AF8F7B8E7}"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://reallifemag.com/the-algorithmic-colonization-of-africa/" xr:uid="{AEE0FA35-C437-9949-A708-80D5B5087969}"/>
-    <hyperlink ref="A11" r:id="rId3" display="https://www.fastcompany.com/90152774/the-dead-serious-strategy-behind-googles-silly-ai-experiments" xr:uid="{6C6A8DE8-A3ED-C546-A70A-EF014F9607A1}"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://venturebeat.com/2019/07/01/ai-classifies-peoples-emotions-from-the-way-they-walk/" xr:uid="{6AD1FB31-1D7F-2E4F-8383-E03BF54B2FCF}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://venturebeat.com/2019/07/01/ai-predicts-whether-youll-return-an-item-before-you-buy-it/" xr:uid="{BA0C671F-766B-AB4A-A99A-C96B8D6513EF}"/>
-    <hyperlink ref="A14" r:id="rId6" display="http://web.archive.org/web/20171101212341/https:/www.bloomberg.com/news/articles/2017-10-19/google-wants-to-train-other-companies-to-use-its-ai-tools" xr:uid="{2EFF2347-9D52-5B4C-9403-76BE7A21730A}"/>
-    <hyperlink ref="A15" r:id="rId7" display="https://datasociety.net/pubs/ia/AI_Pattern_Language.pdf" xr:uid="{BB734365-8E27-1D4F-A9C7-DC0E80916847}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A328175-793F-4B40-B700-CF4037F94595}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
-        <v>67</v>
+      <c r="A18" s="19" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="11" t="s">
-        <v>72</v>
+      <c r="A23" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="19" t="s">
-        <v>93</v>
+      <c r="A24" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="11" t="s">
-        <v>73</v>
+      <c r="A25" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1716,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1901,45 +1726,45 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="17" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="17" customFormat="1">
@@ -1947,64 +1772,62 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="17" customFormat="1">
-      <c r="A14" s="26" t="s">
-        <v>127</v>
+      <c r="A14" s="25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="17" customFormat="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1">
-      <c r="A18" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>122</v>
+      <c r="A18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="17" customFormat="1"/>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="17" customFormat="1">
-      <c r="A22" s="18" t="s">
-        <v>128</v>
-      </c>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="17" customFormat="1">
@@ -2012,12 +1835,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/course outline.xlsx
+++ b/course outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amiros/GitHub/Machine_Learning_Pratt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FA5B9-1C18-5F4A-BDCB-0AA9E9F2D51D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20B002-2A3E-4343-885D-9DA8AF12879E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="560" windowWidth="26660" windowHeight="17440" activeTab="2" xr2:uid="{DF2F3A67-7A70-A940-912B-6F9EEC951716}"/>
+    <workbookView xWindow="1340" yWindow="560" windowWidth="26660" windowHeight="17440" xr2:uid="{DF2F3A67-7A70-A940-912B-6F9EEC951716}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
   <si>
     <t>introdutcion</t>
   </si>
@@ -466,6 +466,9 @@
       </rPr>
       <t>. MIT press.</t>
     </r>
+  </si>
+  <si>
+    <t>Andy Meuller</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F4FA9-094B-0A4E-BD68-2748C8F4FCA6}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1546,10 +1549,7 @@
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="25" t="s">
+      <c r="E34" s="25" t="s">
         <v>113</v>
       </c>
       <c r="G34" s="22">
@@ -1607,7 +1607,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1618,8 +1618,16 @@
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C3" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1646,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C7E994-6042-704D-B357-528CFCBBA675}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
       <selection activeCell="B22" sqref="A15:B22"/>
     </sheetView>
   </sheetViews>
